--- a/resources/tools/wordlist_E-J/lessons/lesson-20.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,480 +436,480 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to be audible</t>
+          <t>that way (polite)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>聞こえる|きこえる</t>
+          <t>あちら</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>humble expression for あげる</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>差し上げる|さしあげる</t>
+          <t>アニメ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to convey (message)</t>
+          <t>space alien</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>伝える|つたえる</t>
+          <t>宇宙人|うちゅうじん</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to keep (someone) waiting</t>
+          <t>sound</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>待たせる|またせる</t>
+          <t>音|おと</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to exchange</t>
+          <t>rice ball</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>交換する|こうかんする</t>
+          <t>おにぎり</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to lead a life</t>
+          <t>our person in charge</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>生活する|せいかつする</t>
+          <t>係の者|かかりのもの</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to return (merchandise)</t>
+          <t>corner</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>返品する|へんぴんする</t>
+          <t>角|かど</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>novel</t>
+          <t>airport</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>小説|しょうせつ</t>
+          <t>空港|くうこう</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>traffic light</t>
+          <t>letter; character</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>信号|しんごう</t>
+          <t>字|じ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sneakers</t>
+          <t>branch office</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>スニーカー</t>
+          <t>支店|してん</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fan</t>
+          <t>hobby; pastime</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>扇子|せんす</t>
+          <t>趣味|しゅみ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>月|つき</t>
+          <t>小説|しょうせつ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>electronic dictionary</t>
+          <t>traffic light</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>電子辞書|でんしじしょ</t>
+          <t>信号|しんごう</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>sneakers</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ドイツ</t>
+          <t>スニーカー</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>high heels</t>
+          <t>fan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ハイヒール</t>
+          <t>扇子|せんす</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>...shop</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>～屋|～や</t>
+          <t>月|つき</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>heavy; serious (illness)</t>
+          <t>electronic dictionary</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>重い|おもい</t>
+          <t>電子辞書|でんしじしょ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>軽い|かるい</t>
+          <t>ドイツ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>that way (polite)</t>
+          <t>high heels</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>あちら</t>
+          <t>ハイヒール</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>animation</t>
+          <t>...shop</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>アニメ</t>
+          <t>～屋|～や</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>space alien</t>
+          <t>heavy; serious (illness)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>宇宙人|うちゅうじん</t>
+          <t>重い|おもい</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sound</t>
+          <t>light</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>音|おと</t>
+          <t>軽い|かるい</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rice ball</t>
+          <t>extra-modest expression for する</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>おにぎり</t>
+          <t>致す|いたす</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>our person in charge</t>
+          <t>extra-modest exp. for たべる and のむ/humble exp. for もらう</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>係の者|かかりのもの</t>
+          <t>頂く|いただく</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>corner</t>
+          <t>to humbly visit; to humbly ask</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>角|かど</t>
+          <t>伺う|うかがう</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>airport</t>
+          <t>extra-modest expression for いる</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>空港|くうこう</t>
+          <t>おる</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>letter; character</t>
+          <t>extra-modest expression for ある</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>字|じ</t>
+          <t>ござる</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>branch office</t>
+          <t>extra-modest expression for ～ている</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>支店|してん</t>
+          <t>～ておる</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hobby; pastime</t>
+          <t>extra-modest expression for です</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>趣味|しゅみ</t>
+          <t>～でござる</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>extra-modest expression for する</t>
+          <t>extra-modest expression for いく and くる</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>致す|いたす</t>
+          <t>参る|まいる</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>extra-modest exp. for たべる and のむ/humble exp. for もらう</t>
+          <t>to turn (right/left)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>頂く|いただく</t>
+          <t>曲がる|まがる</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>to humbly visit; to humbly ask</t>
+          <t>extra-modest expression for いう</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>伺う|うかがう</t>
+          <t>申す|もうす</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>extra-modest expression for いる</t>
+          <t>to return; to come back</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>おる</t>
+          <t>戻る|もどる</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>extra-modest expression for ある</t>
+          <t>to be audible</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ござる</t>
+          <t>聞こえる|きこえる</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>extra-modest expression for ～ている</t>
+          <t>humble expression for あげる</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>～ておる</t>
+          <t>差し上げる|さしあげる</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>extra-modest expression for です</t>
+          <t>to convey (message)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>～でござる</t>
+          <t>伝える|つたえる</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>extra-modest expression for いく and くる</t>
+          <t>to keep (someone) waiting</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>参る|まいる</t>
+          <t>待たせる|またせる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>to turn (right/left)</t>
+          <t>to exchange</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>曲がる|まがる</t>
+          <t>交換する|こうかんする</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>extra-modest expression for いう</t>
+          <t>to lead a life</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>申す|もうす</t>
+          <t>生活する|せいかつする</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to return; to come back</t>
+          <t>to return (merchandise)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>戻る|もどる</t>
+          <t>返品する|へんぴんする</t>
         </is>
       </c>
     </row>
@@ -1004,760 +1072,760 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>plate; dish</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>無理な|むりな</t>
+          <t>皿|さら</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>wasteful</t>
+          <t>paper plate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>無駄な|むだな</t>
+          <t>紙皿|かみざら</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>free of charge</t>
+          <t>ashtray</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>無料|むりょう</t>
+          <t>灰皿|はいざら</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>rude</t>
+          <t>voice</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>無礼な|ぶれいな</t>
+          <t>声|こえ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>there is no...</t>
+          <t>phonetics</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>無い|ない</t>
+          <t>音声学|おんせいがく</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>to pay</t>
+          <t>onomatopoeia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>払う|はらう</t>
+          <t>擬声語|ぎせいご</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>payment</t>
+          <t>voice actor</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>支払い|しはらい</t>
+          <t>声優|せいゆう</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>refund</t>
+          <t>Japanese tea</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>払い戻し|はらいもどし</t>
+          <t>お茶|おちゃ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>payment in installments</t>
+          <t>teahouse</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>分割払い|ぶんかつばらい</t>
+          <t>茶店|ちゃみせ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>heart; mind</t>
+          <t>black tea</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>心|こころ</t>
+          <t>紅茶|こうちゃ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>to worry</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>心配する|しんぱいする</t>
+          <t>茶色|ちゃいろ</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>enthusiastic</t>
+          <t>cafe</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>熱心な|ねっしんな</t>
+          <t>喫茶店|きっさてん</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>(something) stops</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>安心な|あんしんな</t>
+          <t>止まる|とまる</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>to cancel</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>好奇心|こうきしん</t>
+          <t>中止する|ちゅうしする</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>painful</t>
+          <t>to prohibit</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>痛い|いたい</t>
+          <t>禁止する|きんしする</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>painkiller</t>
+          <t>one sheet</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>痛み止め|いたみどめ</t>
+          <t>一枚|いちまい</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>headache</t>
+          <t>number of flat things</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>頭痛|ずつう</t>
+          <t>枚数|まいすう</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>stomachache</t>
+          <t>Three ryoo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>腹痛|ふくつう</t>
+          <t>三両|さんりょう</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>lower back pain</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>腰痛|ようつう</t>
+          <t>両親|りょうしん</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>the worst</t>
+          <t>both hands</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>最悪|さいあく</t>
+          <t>両手|りょうて</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>exchange</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>最近|さいきん</t>
+          <t>両替|りょうがえ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>the best</t>
+          <t>both sides</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>最高|さいこう</t>
+          <t>両方|りょうほう</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>the latest</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>最新|さいしん</t>
+          <t>無理な|むりな</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>lastly</t>
+          <t>wasteful</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>最後に|さいごに</t>
+          <t>無駄な|むだな</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>free of charge</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>最も|もっとも</t>
+          <t>無料|むりょう</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>to continue</t>
+          <t>rude</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>続ける|つづける</t>
+          <t>無礼な|ぶれいな</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>procedure</t>
+          <t>there is no...</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>手続き|てつづき</t>
+          <t>無い|ない</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>to inherit</t>
+          <t>to pay</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>相続する|そうぞくする</t>
+          <t>払う|はらう</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>serial TV drama</t>
+          <t>payment</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>連続ドラマ|れんぞくドラマ</t>
+          <t>支払い|しはらい</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>plate; dish</t>
+          <t>refund</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>皿|さら</t>
+          <t>払い戻し|はらいもどし</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>paper plate</t>
+          <t>payment in installments</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>紙皿|かみざら</t>
+          <t>分割払い|ぶんかつばらい</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ashtray</t>
+          <t>heart; mind</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>灰皿|はいざら</t>
+          <t>心|こころ</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>voice</t>
+          <t>to worry</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>声|こえ</t>
+          <t>心配する|しんぱいする</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>phonetics</t>
+          <t>enthusiastic</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>音声学|おんせいがく</t>
+          <t>熱心な|ねっしんな</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>onomatopoeia</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>擬声語|ぎせいご</t>
+          <t>安心な|あんしんな</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>voice actor</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>声優|せいゆう</t>
+          <t>好奇心|こうきしん</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Japanese tea</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>お茶|おちゃ</t>
+          <t>笑う|わらう</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>teahouse</t>
+          <t>smile</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>茶店|ちゃみせ</t>
+          <t>笑顔|えがお</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>black tea</t>
+          <t>to smile</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>紅茶|こうちゃ</t>
+          <t>微笑む|ほほえむ</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>to burst into laughter</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>茶色|ちゃいろ</t>
+          <t>爆笑する|ばくしょうする</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cafe</t>
+          <t>definitely</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>喫茶店|きっさてん</t>
+          <t>絶対に|ぜったいに</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>to die out</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>笑う|わらう</t>
+          <t>絶える|たえる</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>extinction</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>笑顔|えがお</t>
+          <t>絶滅|ぜつめつ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>to smile</t>
+          <t>to faint</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>微笑む|ほほえむ</t>
+          <t>気絶する|きぜつする</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>to burst into laughter</t>
+          <t>despair</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>爆笑する|ばくしょうする</t>
+          <t>絶望|ぜつぼう</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>definitely</t>
+          <t>to oppose</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>絶対に|ぜったいに</t>
+          <t>反対する|はんたいする</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>to die out</t>
+          <t>Japan versus China</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>絶える|たえる</t>
+          <t>日本対中国|にほんたいちゅうごく</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>extinction</t>
+          <t>a pair</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>絶滅|ぜつめつ</t>
+          <t>一対|いっつい</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>to faint</t>
+          <t>painful</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>気絶する|きぜつする</t>
+          <t>痛い|いたい</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>despair</t>
+          <t>painkiller</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>絶望|ぜつぼう</t>
+          <t>痛み止め|いたみどめ</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>to oppose</t>
+          <t>headache</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>反対する|はんたいする</t>
+          <t>頭痛|ずつう</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Japan versus China</t>
+          <t>stomachache</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>日本対中国|にほんたいちゅうごく</t>
+          <t>腹痛|ふくつう</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>a pair</t>
+          <t>lower back pain</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>一対|いっつい</t>
+          <t>腰痛|ようつう</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>(something) stops</t>
+          <t>the worst</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>止まる|とまる</t>
+          <t>最悪|さいあく</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>to cancel</t>
+          <t>recently</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>中止する|ちゅうしする</t>
+          <t>最近|さいきん</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>to prohibit</t>
+          <t>the best</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>禁止する|きんしする</t>
+          <t>最高|さいこう</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>one sheet</t>
+          <t>the latest</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>一枚|いちまい</t>
+          <t>最新|さいしん</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>number of flat things</t>
+          <t>lastly</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>枚数|まいすう</t>
+          <t>最後に|さいごに</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Three ryoo</t>
+          <t>most</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>三両|さんりょう</t>
+          <t>最も|もっとも</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>to continue</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>両親|りょうしん</t>
+          <t>続ける|つづける</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>both hands</t>
+          <t>procedure</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>両手|りょうて</t>
+          <t>手続き|てつづき</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>exchange</t>
+          <t>to inherit</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>両替|りょうがえ</t>
+          <t>相続する|そうぞくする</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>both sides</t>
+          <t>serial TV drama</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>両方|りょうほう</t>
+          <t>連続ドラマ|れんぞくドラマ</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-20.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-20.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1826,6 +1826,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>